--- a/ARIA imaging results 2023-2024-Truncated.xlsx
+++ b/ARIA imaging results 2023-2024-Truncated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr backupFile="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Emory\Data\ARIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d72a128368553cb/Documents/Emory/Research/aria_research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49765AA5-65A3-4E12-BD91-3A3C755F2BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{49765AA5-65A3-4E12-BD91-3A3C755F2BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{128EDBDA-6CE1-4F46-9DC4-EB3D9D536CDE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export (2)" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Export (2)'!$B$1:$T$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4358" uniqueCount="2010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4327" uniqueCount="2010">
   <si>
     <t>Accession</t>
   </si>
@@ -18470,7 +18471,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -18481,6 +18482,11 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -18520,11 +18526,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18540,6 +18546,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18862,15 +18872,15 @@
   <dimension ref="A1:T368"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D364" sqref="D364"/>
+      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E252" sqref="E252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="7" customWidth="1"/>
     <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" customWidth="1"/>
@@ -18894,7 +18904,7 @@
       <c r="C1" s="5" t="s">
         <v>2007</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>2009</v>
       </c>
       <c r="E1" t="s">
@@ -21132,7 +21142,7 @@
       <c r="C43" s="5" t="s">
         <v>2008</v>
       </c>
-      <c r="D43" s="8"/>
+      <c r="D43" s="7"/>
       <c r="E43">
         <v>73</v>
       </c>
@@ -25534,8 +25544,8 @@
       <c r="B126" t="s">
         <v>1532</v>
       </c>
-      <c r="C126" s="5" t="s">
-        <v>2008</v>
+      <c r="C126" s="10">
+        <v>81083502</v>
       </c>
       <c r="E126">
         <v>62</v>
@@ -25799,8 +25809,8 @@
       <c r="B131" t="s">
         <v>245</v>
       </c>
-      <c r="C131" s="5" t="s">
-        <v>2008</v>
+      <c r="C131" s="5">
+        <v>67484501</v>
       </c>
       <c r="E131">
         <v>74</v>
@@ -26014,7 +26024,7 @@
       <c r="C135" s="5" t="s">
         <v>2008</v>
       </c>
-      <c r="D135" s="8"/>
+      <c r="D135" s="7"/>
       <c r="E135">
         <v>79</v>
       </c>
@@ -27077,8 +27087,8 @@
       <c r="B155" t="s">
         <v>28</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>2008</v>
+      <c r="C155" s="10">
+        <v>31388723</v>
       </c>
       <c r="E155">
         <v>77</v>
@@ -27130,8 +27140,8 @@
       <c r="B156" t="s">
         <v>269</v>
       </c>
-      <c r="C156" s="5" t="s">
-        <v>2008</v>
+      <c r="C156" t="s">
+        <v>269</v>
       </c>
       <c r="E156">
         <v>85</v>
@@ -27448,8 +27458,8 @@
       <c r="B162" t="s">
         <v>1103</v>
       </c>
-      <c r="C162" s="5" t="s">
-        <v>2008</v>
+      <c r="C162" s="5">
+        <v>852996028103162</v>
       </c>
       <c r="E162">
         <v>76</v>
@@ -27769,8 +27779,8 @@
       <c r="B168" t="s">
         <v>746</v>
       </c>
-      <c r="C168" s="5" t="s">
-        <v>2008</v>
+      <c r="C168" s="10">
+        <v>86428480</v>
       </c>
       <c r="E168">
         <v>73</v>
@@ -27822,8 +27832,8 @@
       <c r="B169" t="s">
         <v>1537</v>
       </c>
-      <c r="C169" s="5" t="s">
-        <v>2008</v>
+      <c r="C169" s="10">
+        <v>81083502</v>
       </c>
       <c r="E169">
         <v>62</v>
@@ -27928,8 +27938,8 @@
       <c r="B171" t="s">
         <v>251</v>
       </c>
-      <c r="C171" s="5" t="s">
-        <v>2008</v>
+      <c r="C171" s="5">
+        <v>67484501</v>
       </c>
       <c r="E171">
         <v>74</v>
@@ -28776,8 +28786,8 @@
       <c r="B187" t="s">
         <v>34</v>
       </c>
-      <c r="C187" s="5" t="s">
-        <v>2008</v>
+      <c r="C187" s="10">
+        <v>31388723</v>
       </c>
       <c r="E187">
         <v>77</v>
@@ -29465,8 +29475,8 @@
       <c r="B200" t="s">
         <v>1879</v>
       </c>
-      <c r="C200" s="5" t="s">
-        <v>2008</v>
+      <c r="C200" s="10">
+        <v>747543335865326</v>
       </c>
       <c r="E200">
         <v>66</v>
@@ -29518,8 +29528,8 @@
       <c r="B201" t="s">
         <v>977</v>
       </c>
-      <c r="C201" s="5" t="s">
-        <v>2008</v>
+      <c r="C201" s="10">
+        <v>55783053</v>
       </c>
       <c r="E201">
         <v>77</v>
@@ -29571,8 +29581,8 @@
       <c r="B202" t="s">
         <v>1108</v>
       </c>
-      <c r="C202" s="5" t="s">
-        <v>2008</v>
+      <c r="C202" s="5">
+        <v>852996028103162</v>
       </c>
       <c r="E202">
         <v>76</v>
@@ -29730,8 +29740,8 @@
       <c r="B205" t="s">
         <v>752</v>
       </c>
-      <c r="C205" s="5" t="s">
-        <v>2008</v>
+      <c r="C205" s="10">
+        <v>86428480</v>
       </c>
       <c r="E205">
         <v>73</v>
@@ -29942,8 +29952,8 @@
       <c r="B209" t="s">
         <v>1331</v>
       </c>
-      <c r="C209" s="5" t="s">
-        <v>2008</v>
+      <c r="C209" s="10">
+        <v>81430309</v>
       </c>
       <c r="E209">
         <v>77</v>
@@ -30207,8 +30217,8 @@
       <c r="B214" t="s">
         <v>1042</v>
       </c>
-      <c r="C214" s="5" t="s">
-        <v>2008</v>
+      <c r="C214" s="10">
+        <v>57884614</v>
       </c>
       <c r="E214">
         <v>74</v>
@@ -30419,8 +30429,8 @@
       <c r="B218" t="s">
         <v>1542</v>
       </c>
-      <c r="C218" s="5" t="s">
-        <v>2008</v>
+      <c r="C218" s="10">
+        <v>81083502</v>
       </c>
       <c r="E218">
         <v>62</v>
@@ -31108,8 +31118,8 @@
       <c r="B231" t="s">
         <v>40</v>
       </c>
-      <c r="C231" s="5" t="s">
-        <v>2008</v>
+      <c r="C231" s="10">
+        <v>31388723</v>
       </c>
       <c r="E231">
         <v>77</v>
@@ -31320,8 +31330,8 @@
       <c r="B235" t="s">
         <v>273</v>
       </c>
-      <c r="C235" s="5" t="s">
-        <v>2008</v>
+      <c r="C235" s="10">
+        <v>18107772</v>
       </c>
       <c r="E235">
         <v>85</v>
@@ -31482,8 +31492,8 @@
       <c r="B238" t="s">
         <v>770</v>
       </c>
-      <c r="C238" s="5" t="s">
-        <v>2008</v>
+      <c r="C238" s="10">
+        <v>49458769</v>
       </c>
       <c r="E238">
         <v>74</v>
@@ -31588,8 +31598,8 @@
       <c r="B240" t="s">
         <v>983</v>
       </c>
-      <c r="C240" s="5" t="s">
-        <v>2008</v>
+      <c r="C240" s="10">
+        <v>55783053</v>
       </c>
       <c r="E240">
         <v>77</v>
@@ -31694,8 +31704,8 @@
       <c r="B242" t="s">
         <v>1885</v>
       </c>
-      <c r="C242" s="5" t="s">
-        <v>2008</v>
+      <c r="C242" s="10">
+        <v>747543335865326</v>
       </c>
       <c r="E242">
         <v>66</v>
@@ -31906,8 +31916,8 @@
       <c r="B246" t="s">
         <v>758</v>
       </c>
-      <c r="C246" s="5" t="s">
-        <v>2008</v>
+      <c r="C246" s="10">
+        <v>86428480</v>
       </c>
       <c r="E246">
         <v>73</v>
@@ -32065,8 +32075,8 @@
       <c r="B249" t="s">
         <v>1047</v>
       </c>
-      <c r="C249" s="5" t="s">
-        <v>2008</v>
+      <c r="C249" s="10">
+        <v>57884614</v>
       </c>
       <c r="E249">
         <v>74</v>
@@ -33651,17 +33661,17 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="C279" s="6" t="s">
-        <v>2008</v>
-      </c>
-      <c r="D279" s="9"/>
+      <c r="C279" s="10">
+        <v>49458769</v>
+      </c>
+      <c r="D279" s="8"/>
       <c r="E279" s="3">
         <v>74</v>
       </c>
@@ -33873,8 +33883,8 @@
       <c r="B283" t="s">
         <v>46</v>
       </c>
-      <c r="C283" s="5" t="s">
-        <v>2008</v>
+      <c r="C283" s="10">
+        <v>31388723</v>
       </c>
       <c r="E283">
         <v>77</v>
@@ -34191,8 +34201,8 @@
       <c r="B289" t="s">
         <v>279</v>
       </c>
-      <c r="C289" s="5" t="s">
-        <v>2008</v>
+      <c r="C289" s="10">
+        <v>18107772</v>
       </c>
       <c r="E289">
         <v>86</v>
@@ -34403,10 +34413,10 @@
       <c r="B293" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C293" s="6" t="s">
-        <v>2008</v>
-      </c>
-      <c r="D293" s="9"/>
+      <c r="C293" s="5">
+        <v>67484501</v>
+      </c>
+      <c r="D293" s="8"/>
       <c r="E293" s="3">
         <v>74</v>
       </c>
@@ -34618,8 +34628,8 @@
       <c r="B297" t="s">
         <v>1267</v>
       </c>
-      <c r="C297" s="5" t="s">
-        <v>2008</v>
+      <c r="C297" s="5">
+        <v>922727828406320</v>
       </c>
       <c r="E297">
         <v>81</v>
@@ -34936,8 +34946,8 @@
       <c r="B303" t="s">
         <v>1496</v>
       </c>
-      <c r="C303" s="5" t="s">
-        <v>2008</v>
+      <c r="C303" s="10">
+        <v>589492837387617</v>
       </c>
       <c r="E303">
         <v>65</v>
@@ -35416,8 +35426,8 @@
       <c r="B312" t="s">
         <v>1336</v>
       </c>
-      <c r="C312" s="5" t="s">
-        <v>2008</v>
+      <c r="C312" s="10">
+        <v>81430309</v>
       </c>
       <c r="E312">
         <v>77</v>
@@ -35469,8 +35479,8 @@
       <c r="B313" t="s">
         <v>589</v>
       </c>
-      <c r="C313" s="5" t="s">
-        <v>2008</v>
+      <c r="C313" s="10">
+        <v>28957113</v>
       </c>
       <c r="E313">
         <v>84</v>
@@ -36108,8 +36118,8 @@
       <c r="B325" t="s">
         <v>1914</v>
       </c>
-      <c r="C325" s="5" t="s">
-        <v>2008</v>
+      <c r="C325" s="10">
+        <v>551826061833708</v>
       </c>
       <c r="E325">
         <v>73</v>
@@ -36419,7 +36429,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="331" spans="1:20" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:20" ht="190.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>330</v>
       </c>
@@ -36747,7 +36757,7 @@
       <c r="C337" s="5">
         <v>852996028103162</v>
       </c>
-      <c r="D337" s="8">
+      <c r="D337" s="7">
         <v>45351</v>
       </c>
       <c r="E337">
@@ -36803,7 +36813,7 @@
       <c r="C338" s="5">
         <v>922727828406320</v>
       </c>
-      <c r="D338" s="8">
+      <c r="D338" s="7">
         <v>45457</v>
       </c>
       <c r="E338">
@@ -36859,7 +36869,7 @@
       <c r="C339" s="5">
         <v>751930292403960</v>
       </c>
-      <c r="D339" s="8">
+      <c r="D339" s="7">
         <v>45495</v>
       </c>
       <c r="E339">
@@ -36915,7 +36925,7 @@
       <c r="C340" s="5">
         <v>67484501</v>
       </c>
-      <c r="D340" s="8">
+      <c r="D340" s="7">
         <v>45328</v>
       </c>
       <c r="E340">
@@ -36971,7 +36981,7 @@
       <c r="C341" s="5">
         <v>49458769</v>
       </c>
-      <c r="D341" s="8">
+      <c r="D341" s="7">
         <v>45407</v>
       </c>
       <c r="E341">
@@ -37027,7 +37037,7 @@
       <c r="C342" s="5">
         <v>589492837387617</v>
       </c>
-      <c r="D342" s="8">
+      <c r="D342" s="7">
         <v>45491</v>
       </c>
       <c r="E342">
@@ -37083,7 +37093,7 @@
       <c r="C343" s="5">
         <v>31388723</v>
       </c>
-      <c r="D343" s="8">
+      <c r="D343" s="7">
         <v>45370</v>
       </c>
       <c r="E343">
@@ -37192,7 +37202,7 @@
       <c r="C345" s="5">
         <v>81083502</v>
       </c>
-      <c r="D345" s="8">
+      <c r="D345" s="7">
         <v>45352</v>
       </c>
       <c r="E345">
@@ -37248,7 +37258,7 @@
       <c r="C346" s="5">
         <v>252368048091469</v>
       </c>
-      <c r="D346" s="8">
+      <c r="D346" s="7">
         <v>45609</v>
       </c>
       <c r="E346">
@@ -37357,7 +37367,7 @@
       <c r="C348" s="5">
         <v>379193146248288</v>
       </c>
-      <c r="D348" s="8">
+      <c r="D348" s="7">
         <v>45497</v>
       </c>
       <c r="E348">
@@ -37466,7 +37476,7 @@
       <c r="C350" s="5">
         <v>395078989558049</v>
       </c>
-      <c r="D350" s="8">
+      <c r="D350" s="7">
         <v>45498</v>
       </c>
       <c r="E350">
@@ -37522,7 +37532,7 @@
       <c r="C351" s="5">
         <v>81430309</v>
       </c>
-      <c r="D351" s="8">
+      <c r="D351" s="7">
         <v>45471</v>
       </c>
       <c r="E351">
@@ -37578,7 +37588,7 @@
       <c r="C352" s="5">
         <v>18107772</v>
       </c>
-      <c r="D352" s="8">
+      <c r="D352" s="7">
         <v>45331</v>
       </c>
       <c r="E352">
@@ -37634,7 +37644,7 @@
       <c r="C353" s="5">
         <v>36253808</v>
       </c>
-      <c r="D353" s="8">
+      <c r="D353" s="7">
         <v>45531</v>
       </c>
       <c r="E353">
@@ -37690,7 +37700,7 @@
       <c r="C354" s="5">
         <v>747543335865326</v>
       </c>
-      <c r="D354" s="8">
+      <c r="D354" s="7">
         <v>45376</v>
       </c>
       <c r="E354">
@@ -37746,7 +37756,7 @@
       <c r="C355" s="5">
         <v>28957113</v>
       </c>
-      <c r="D355" s="8">
+      <c r="D355" s="7">
         <v>45474</v>
       </c>
       <c r="E355">
@@ -37855,7 +37865,7 @@
       <c r="C357" s="5">
         <v>55783053</v>
       </c>
-      <c r="D357" s="8">
+      <c r="D357" s="7">
         <v>45372</v>
       </c>
       <c r="E357">
@@ -38070,7 +38080,7 @@
       <c r="C361" s="5">
         <v>551826061833708</v>
       </c>
-      <c r="D361" s="8">
+      <c r="D361" s="7">
         <v>45476</v>
       </c>
       <c r="E361">
@@ -38126,7 +38136,7 @@
       <c r="C362" s="5">
         <v>86428480</v>
       </c>
-      <c r="D362" s="8">
+      <c r="D362" s="7">
         <v>45380</v>
       </c>
       <c r="E362">
@@ -38182,7 +38192,7 @@
       <c r="C363" s="5">
         <v>57884614</v>
       </c>
-      <c r="D363" s="8">
+      <c r="D363" s="7">
         <v>45380</v>
       </c>
       <c r="E363">
@@ -38229,8 +38239,8 @@
       </c>
     </row>
     <row r="365" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C365" s="7"/>
-      <c r="D365" s="10"/>
+      <c r="C365" s="6"/>
+      <c r="D365" s="9"/>
       <c r="Q365" s="1" t="s">
         <v>2002</v>
       </c>

--- a/ARIA imaging results 2023-2024-Truncated.xlsx
+++ b/ARIA imaging results 2023-2024-Truncated.xlsx
@@ -18872,8 +18872,8 @@
   <dimension ref="A1:T368"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E252" sqref="E252"/>
+      <pane ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E299" sqref="E299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
